--- a/data/trans_orig/PCS12_SP_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56CD0492-725D-493D-B811-214ED704A42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A65E008E-B3DC-4F96-8F56-34363B566289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E33A9AF-892C-4AE0-8BB7-9B3F09DF4A8E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CD59CFC5-47E5-40D5-8437-D3E1016905FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
+  <si>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,951 +68,804 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>80,5%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>16,69%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
     <t>73,86%</t>
   </si>
   <si>
@@ -1031,307 +884,259 @@
     <t>79,57%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>71,42%</t>
   </si>
   <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
     <t>76,71%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531A94F2-A834-444C-A8E8-9C6884397FE6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717CC3E5-136F-4A36-81DB-0BFB0FCE55AE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1861,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7">
-        <v>21293</v>
+        <v>120035</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1876,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="I4" s="7">
-        <v>35358</v>
+        <v>187284</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1891,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="N4" s="7">
-        <v>56652</v>
+        <v>307319</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1912,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>561</v>
       </c>
       <c r="D5" s="7">
-        <v>94065</v>
+        <v>573977</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1927,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>88</v>
+        <v>507</v>
       </c>
       <c r="I5" s="7">
-        <v>77397</v>
+        <v>501067</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1942,10 +1747,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>173</v>
+        <v>1068</v>
       </c>
       <c r="N5" s="7">
-        <v>171461</v>
+        <v>1075044</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1963,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>98742</v>
+        <v>136762</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2031,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="I7" s="7">
-        <v>151926</v>
+        <v>264595</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2046,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="N7" s="7">
-        <v>250668</v>
+        <v>401357</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2067,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>476</v>
+        <v>762</v>
       </c>
       <c r="D8" s="7">
-        <v>479912</v>
+        <v>825038</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2082,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>419</v>
+        <v>664</v>
       </c>
       <c r="I8" s="7">
-        <v>423670</v>
+        <v>703798</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2097,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>895</v>
+        <v>1426</v>
       </c>
       <c r="N8" s="7">
-        <v>903582</v>
+        <v>1528836</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2118,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2148,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2171,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>136762</v>
+        <v>117071</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2186,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>264595</v>
+        <v>196436</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2201,10 +2006,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="N10" s="7">
-        <v>401357</v>
+        <v>313507</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2222,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>762</v>
+        <v>527</v>
       </c>
       <c r="D11" s="7">
-        <v>825038</v>
+        <v>561438</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2237,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>664</v>
+        <v>497</v>
       </c>
       <c r="I11" s="7">
-        <v>703798</v>
+        <v>487405</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2252,10 +2057,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1426</v>
+        <v>1024</v>
       </c>
       <c r="N11" s="7">
-        <v>1528836</v>
+        <v>1048843</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2273,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2326,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7">
-        <v>117071</v>
+        <v>143811</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2341,10 +2146,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="I13" s="7">
-        <v>196436</v>
+        <v>270757</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2356,10 +2161,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="N13" s="7">
-        <v>313507</v>
+        <v>414568</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2377,10 +2182,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>527</v>
+        <v>835</v>
       </c>
       <c r="D14" s="7">
-        <v>561438</v>
+        <v>798411</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2392,10 +2197,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>497</v>
+        <v>741</v>
       </c>
       <c r="I14" s="7">
-        <v>487405</v>
+        <v>767855</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2407,10 +2212,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1024</v>
+        <v>1576</v>
       </c>
       <c r="N14" s="7">
-        <v>1048843</v>
+        <v>1566266</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2428,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2458,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2475,55 +2280,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>159</v>
+        <v>529</v>
       </c>
       <c r="D16" s="7">
-        <v>143811</v>
+        <v>517680</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>888</v>
+      </c>
+      <c r="I16" s="7">
+        <v>919072</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>256</v>
-      </c>
-      <c r="I16" s="7">
-        <v>270757</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1417</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1436752</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>415</v>
-      </c>
-      <c r="N16" s="7">
-        <v>414568</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,49 +2337,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>835</v>
+        <v>2685</v>
       </c>
       <c r="D17" s="7">
-        <v>798411</v>
+        <v>2758863</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2409</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2460125</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>741</v>
-      </c>
-      <c r="I17" s="7">
-        <v>767855</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5094</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5218989</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1576</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1566266</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2613,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2629,171 +2434,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>529</v>
-      </c>
-      <c r="D19" s="7">
-        <v>517680</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>888</v>
-      </c>
-      <c r="I19" s="7">
-        <v>919072</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1417</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1436751</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2685</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2758864</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2409</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2460126</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5094</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5218989</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2806,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB164B97-5E20-4156-9718-8339BDC22D17}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4DCC3C-4AFF-451A-B274-734DEF1A71AA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2823,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D4" s="7">
-        <v>23033</v>
+        <v>134580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="I4" s="7">
-        <v>40829</v>
+        <v>218129</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="N4" s="7">
-        <v>63862</v>
+        <v>352710</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>96</v>
+        <v>547</v>
       </c>
       <c r="D5" s="7">
-        <v>92732</v>
+        <v>568889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="I5" s="7">
-        <v>71076</v>
+        <v>478921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>159</v>
+        <v>995</v>
       </c>
       <c r="N5" s="7">
-        <v>163808</v>
+        <v>1047809</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3079,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>111547</v>
+        <v>188825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="I7" s="7">
-        <v>177300</v>
+        <v>306010</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>267</v>
+        <v>449</v>
       </c>
       <c r="N7" s="7">
-        <v>288847</v>
+        <v>494835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>451</v>
+        <v>765</v>
       </c>
       <c r="D8" s="7">
-        <v>476157</v>
+        <v>829122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>385</v>
+        <v>662</v>
       </c>
       <c r="I8" s="7">
-        <v>407845</v>
+        <v>726174</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
-        <v>836</v>
+        <v>1427</v>
       </c>
       <c r="N8" s="7">
-        <v>884002</v>
+        <v>1555296</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3234,49 +2883,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>188825</v>
+        <v>106943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
+        <v>185</v>
+      </c>
+      <c r="I10" s="7">
+        <v>202585</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="7">
         <v>278</v>
       </c>
-      <c r="I10" s="7">
-        <v>306010</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M10" s="7">
-        <v>449</v>
-      </c>
       <c r="N10" s="7">
-        <v>494835</v>
+        <v>309528</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>765</v>
+        <v>596</v>
       </c>
       <c r="D11" s="7">
-        <v>829122</v>
+        <v>650680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>662</v>
+        <v>520</v>
       </c>
       <c r="I11" s="7">
-        <v>726174</v>
+        <v>574589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1427</v>
+        <v>1116</v>
       </c>
       <c r="N11" s="7">
-        <v>1555296</v>
+        <v>1225269</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3351,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3389,49 +3038,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D13" s="7">
-        <v>106943</v>
+        <v>182070</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="I13" s="7">
-        <v>202585</v>
+        <v>310365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>278</v>
+        <v>462</v>
       </c>
       <c r="N13" s="7">
-        <v>309528</v>
+        <v>492435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3089,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>596</v>
+        <v>741</v>
       </c>
       <c r="D14" s="7">
-        <v>650680</v>
+        <v>765669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>520</v>
+        <v>710</v>
       </c>
       <c r="I14" s="7">
-        <v>574589</v>
+        <v>741536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1116</v>
+        <v>1451</v>
       </c>
       <c r="N14" s="7">
-        <v>1225269</v>
+        <v>1507205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3506,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3521,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3538,55 +3187,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>169</v>
+        <v>560</v>
       </c>
       <c r="D16" s="7">
-        <v>182070</v>
+        <v>612418</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>293</v>
+        <v>958</v>
       </c>
       <c r="I16" s="7">
-        <v>310365</v>
+        <v>1037089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>462</v>
+        <v>1518</v>
       </c>
       <c r="N16" s="7">
-        <v>492435</v>
+        <v>1649508</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3244,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>741</v>
+        <v>2649</v>
       </c>
       <c r="D17" s="7">
-        <v>765669</v>
+        <v>2814361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>710</v>
+        <v>2340</v>
       </c>
       <c r="I17" s="7">
-        <v>741536</v>
+        <v>2521220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
-        <v>1451</v>
+        <v>4989</v>
       </c>
       <c r="N17" s="7">
-        <v>1507205</v>
+        <v>5335580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3661,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3676,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3692,171 +3341,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>560</v>
-      </c>
-      <c r="D19" s="7">
-        <v>612418</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>958</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1037089</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1518</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1649508</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2649</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2814361</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2340</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2521220</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4989</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5335580</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3869,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F989E842-AA26-4BB1-A673-99D063A032C2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD44B3F6-C909-49E3-A7A8-6E29BA439E7A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3886,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D4" s="7">
-        <v>32910</v>
+        <v>129649</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="I4" s="7">
-        <v>32157</v>
+        <v>202869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>317</v>
       </c>
       <c r="N4" s="7">
-        <v>65067</v>
+        <v>332517</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="D5" s="7">
-        <v>83636</v>
+        <v>545151</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>85</v>
+        <v>477</v>
       </c>
       <c r="I5" s="7">
-        <v>81203</v>
+        <v>469970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>166</v>
+        <v>1001</v>
       </c>
       <c r="N5" s="7">
-        <v>164839</v>
+        <v>1015122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4142,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="D7" s="7">
-        <v>96738</v>
+        <v>167511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="I7" s="7">
-        <v>170711</v>
+        <v>275558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>255</v>
+        <v>404</v>
       </c>
       <c r="N7" s="7">
-        <v>267450</v>
+        <v>443069</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>443</v>
+        <v>784</v>
       </c>
       <c r="D8" s="7">
-        <v>461516</v>
+        <v>854920</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>392</v>
+        <v>740</v>
       </c>
       <c r="I8" s="7">
-        <v>388768</v>
+        <v>767355</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>835</v>
+        <v>1524</v>
       </c>
       <c r="N8" s="7">
-        <v>850283</v>
+        <v>1622275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4274,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4297,49 +3790,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>167511</v>
+        <v>111135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="I10" s="7">
-        <v>275558</v>
+        <v>182630</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>404</v>
+        <v>263</v>
       </c>
       <c r="N10" s="7">
-        <v>443069</v>
+        <v>293765</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>784</v>
+        <v>591</v>
       </c>
       <c r="D11" s="7">
-        <v>854920</v>
+        <v>648417</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>740</v>
+        <v>578</v>
       </c>
       <c r="I11" s="7">
-        <v>767355</v>
+        <v>602381</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>1524</v>
+        <v>1169</v>
       </c>
       <c r="N11" s="7">
-        <v>1622275</v>
+        <v>1250798</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4429,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,49 +3945,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="D13" s="7">
-        <v>111135</v>
+        <v>158055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="I13" s="7">
-        <v>182630</v>
+        <v>265654</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>263</v>
+        <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>293765</v>
+        <v>423709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>591</v>
+        <v>775</v>
       </c>
       <c r="D14" s="7">
-        <v>648417</v>
+        <v>779512</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>578</v>
+        <v>737</v>
       </c>
       <c r="I14" s="7">
-        <v>602381</v>
+        <v>778125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>1169</v>
+        <v>1512</v>
       </c>
       <c r="N14" s="7">
-        <v>1250798</v>
+        <v>1557637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4584,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4601,55 +4094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>157</v>
+        <v>557</v>
       </c>
       <c r="D16" s="7">
-        <v>158055</v>
+        <v>566350</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>222</v>
+        <v>806</v>
       </c>
       <c r="I16" s="7">
-        <v>265654</v>
+        <v>926711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>379</v>
+        <v>1363</v>
       </c>
       <c r="N16" s="7">
-        <v>423709</v>
+        <v>1493061</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,49 +4151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>775</v>
+        <v>2674</v>
       </c>
       <c r="D17" s="7">
-        <v>779512</v>
+        <v>2828000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>737</v>
+        <v>2532</v>
       </c>
       <c r="I17" s="7">
-        <v>778125</v>
+        <v>2617831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>1512</v>
+        <v>5206</v>
       </c>
       <c r="N17" s="7">
-        <v>1557637</v>
+        <v>5445831</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4217,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4739,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4755,171 +4248,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>557</v>
-      </c>
-      <c r="D19" s="7">
-        <v>566350</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H19" s="7">
-        <v>806</v>
-      </c>
-      <c r="I19" s="7">
-        <v>926711</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1363</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1493061</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2674</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2828000</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2532</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2617831</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5206</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5445831</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4932,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FB819E-7DD7-4FC1-8210-8F1B5EE6A675}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAAB7E5-8DA5-4E79-9843-3CD1D2394541}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4949,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="D4" s="7">
-        <v>38430</v>
+        <v>170073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>103</v>
+        <v>466</v>
       </c>
       <c r="I4" s="7">
-        <v>45785</v>
+        <v>216797</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
-        <v>150</v>
+        <v>697</v>
       </c>
       <c r="N4" s="7">
-        <v>84215</v>
+        <v>386870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>69</v>
+        <v>493</v>
       </c>
       <c r="D5" s="7">
-        <v>61068</v>
+        <v>460091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>135</v>
+        <v>761</v>
       </c>
       <c r="I5" s="7">
-        <v>82917</v>
+        <v>453064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>204</v>
+        <v>1254</v>
       </c>
       <c r="N5" s="7">
-        <v>143985</v>
+        <v>913154</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>724</v>
       </c>
       <c r="D6" s="7">
-        <v>99498</v>
+        <v>630164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5167,10 +4504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1227</v>
       </c>
       <c r="I6" s="7">
-        <v>128702</v>
+        <v>669861</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5182,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>354</v>
+        <v>1951</v>
       </c>
       <c r="N6" s="7">
-        <v>228200</v>
+        <v>1300024</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5205,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="D7" s="7">
-        <v>138528</v>
+        <v>417508</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>363</v>
+        <v>527</v>
       </c>
       <c r="I7" s="7">
-        <v>186260</v>
+        <v>286008</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>547</v>
+        <v>740</v>
       </c>
       <c r="N7" s="7">
-        <v>324788</v>
+        <v>703517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>424</v>
+        <v>746</v>
       </c>
       <c r="D8" s="7">
-        <v>408192</v>
+        <v>770804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>626</v>
+        <v>979</v>
       </c>
       <c r="I8" s="7">
-        <v>402362</v>
+        <v>666831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>1050</v>
+        <v>1725</v>
       </c>
       <c r="N8" s="7">
-        <v>810554</v>
+        <v>1437634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>608</v>
+        <v>959</v>
       </c>
       <c r="D9" s="7">
-        <v>546720</v>
+        <v>1188312</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5322,10 +4659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>989</v>
+        <v>1506</v>
       </c>
       <c r="I9" s="7">
-        <v>588622</v>
+        <v>952839</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5337,10 +4674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1597</v>
+        <v>2465</v>
       </c>
       <c r="N9" s="7">
-        <v>1135342</v>
+        <v>2141151</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5360,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="D10" s="7">
-        <v>235370</v>
+        <v>145981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
-        <v>527</v>
+        <v>324</v>
       </c>
       <c r="I10" s="7">
-        <v>313963</v>
+        <v>188471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>740</v>
+        <v>487</v>
       </c>
       <c r="N10" s="7">
-        <v>549333</v>
+        <v>334452</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>746</v>
+        <v>511</v>
       </c>
       <c r="D11" s="7">
-        <v>798999</v>
+        <v>556345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
-        <v>979</v>
+        <v>720</v>
       </c>
       <c r="I11" s="7">
-        <v>739771</v>
+        <v>743160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
-        <v>1725</v>
+        <v>1231</v>
       </c>
       <c r="N11" s="7">
-        <v>1538770</v>
+        <v>1299504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>959</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1034369</v>
+        <v>702326</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5477,10 +4814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1506</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1053734</v>
+        <v>931631</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5492,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2465</v>
+        <v>1718</v>
       </c>
       <c r="N12" s="7">
-        <v>2088103</v>
+        <v>1633956</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5515,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>154354</v>
+        <v>199103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
-        <v>324</v>
+        <v>580</v>
       </c>
       <c r="I13" s="7">
-        <v>203235</v>
+        <v>334039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
-        <v>487</v>
+        <v>835</v>
       </c>
       <c r="N13" s="7">
-        <v>357589</v>
+        <v>533142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>511</v>
+        <v>746</v>
       </c>
       <c r="D14" s="7">
-        <v>571976</v>
+        <v>723806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>720</v>
+        <v>974</v>
       </c>
       <c r="I14" s="7">
-        <v>669265</v>
+        <v>755234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>1231</v>
+        <v>1720</v>
       </c>
       <c r="N14" s="7">
-        <v>1241241</v>
+        <v>1479040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1001</v>
       </c>
       <c r="D15" s="7">
-        <v>726330</v>
+        <v>922909</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5632,10 +4969,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1554</v>
       </c>
       <c r="I15" s="7">
-        <v>872500</v>
+        <v>1089273</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5647,10 +4984,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1718</v>
+        <v>2555</v>
       </c>
       <c r="N15" s="7">
-        <v>1598830</v>
+        <v>2012182</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5664,55 +5001,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>862</v>
       </c>
       <c r="D16" s="7">
-        <v>210080</v>
+        <v>932665</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
-        <v>580</v>
+        <v>1897</v>
       </c>
       <c r="I16" s="7">
-        <v>372523</v>
+        <v>1025315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
-        <v>835</v>
+        <v>2759</v>
       </c>
       <c r="N16" s="7">
-        <v>582603</v>
+        <v>1957981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>746</v>
+        <v>2496</v>
       </c>
       <c r="D17" s="7">
-        <v>751164</v>
+        <v>2511046</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>974</v>
+        <v>3434</v>
       </c>
       <c r="I17" s="7">
-        <v>771491</v>
+        <v>2618288</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>1720</v>
+        <v>5930</v>
       </c>
       <c r="N17" s="7">
-        <v>1522655</v>
+        <v>5129333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1001</v>
+        <v>3358</v>
       </c>
       <c r="D18" s="7">
-        <v>961244</v>
+        <v>3443711</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5787,10 +5124,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1554</v>
+        <v>5331</v>
       </c>
       <c r="I18" s="7">
-        <v>1144014</v>
+        <v>3643603</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5802,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2555</v>
+        <v>8689</v>
       </c>
       <c r="N18" s="7">
-        <v>2105258</v>
+        <v>7087314</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5818,171 +5155,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>862</v>
-      </c>
-      <c r="D19" s="7">
-        <v>776762</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1897</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1121765</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2759</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1898528</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2496</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2591400</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3434</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2665807</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5930</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5257206</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3358</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3368162</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5331</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3787572</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8689</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7155734</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
